--- a/medicine/Enfance/Lorenzo_Silva/Lorenzo_Silva.xlsx
+++ b/medicine/Enfance/Lorenzo_Silva/Lorenzo_Silva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorenzo Silva, né le 7 juin 1966 dans le quartier de Carabanchel à Madrid, est un écrivain espagnol, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie le droit à l'Université complutense de Madrid, puis travaille comme juriste d'entreprise de 1992 à 2002.
 Dans les années 1990, il se lance dans l'écriture de fictions, d'articles et d'essais littéraires, puis signe, à partir de Noviembre sin violetas (1995), plusieurs romans policiers qui lui valent une reconnaissance internationale. 
@@ -547,22 +561,106 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie de la nostalgie
-La flaqueza del bolchevique (1997) Publié en français sous le titre Le Chagrin du bolchevik, traduit par Dominique Lepreux, Paris, Éditions J.-C. Lattès, 2004, 189 p.  (ISBN 2-7096-2437-0)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie de la nostalgie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La flaqueza del bolchevique (1997) Publié en français sous le titre Le Chagrin du bolchevik, traduit par Dominique Lepreux, Paris, Éditions J.-C. Lattès, 2004, 189 p.  (ISBN 2-7096-2437-0)
 El ángel oculto (1999)
-El urinario (2007)
-Série policière Rubén Bevilacqua
-El lejano país de los estanques (1998) Publié en français sous le titre Une femme suspendue, traduit par Dominique Lepreux, Paris, Éditions J.-C. Lattès, coll. « Suspense &amp; Cie », 2000, 282 p.  (ISBN 2-7096-2090-1)
+El urinario (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière Rubén Bevilacqua</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>El lejano país de los estanques (1998) Publié en français sous le titre Une femme suspendue, traduit par Dominique Lepreux, Paris, Éditions J.-C. Lattès, coll. « Suspense &amp; Cie », 2000, 282 p.  (ISBN 2-7096-2090-1)
 El alquimista impaciente (2000) Publié en français sous le titre L’Alchimiste impatient, traduit par Dominique Lepreux, Paris, Éditions J.-C. Lattès, coll. « Suspense &amp; Cie », 2002, 302 p.  (ISBN 2-7096-2209-2) ; réédition, Paris, Le Livre de poche no 37052, 2004  (ISBN 2-253-08796-3)
 La niebla y la doncella (2002) Publié en français sous le titre La Jeune Fille et la Brume, traduit par Dominique Lepreux, Paris, Éditions J.-C. Lattès, coll. « Suspense &amp; Cie », 2005, 370 p.  (ISBN 2-7096-2516-4)
 Nadie vale más que otro. Cuatro asuntos de Bevilacqua (2004)
 La reina sin espejo (2005)
 La estrategia del agua (2010)
 La marca del meridiano (2012)
-Los cuerpos extraños (2014)
-Autres romans
-Noviembre sin violetas (1995)
+Los cuerpos extraños (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Noviembre sin violetas (1995)
 La sustancia interior (1996)
 Algún día, cuando pueda llevarte a Varsovia (1997)
 El nombre de los nuestros (2001) Publié en français sous le titre Au nom des nôtres, traduit par Alexandra Carrasco, Paris, Éditions Fayard, 2003, 328 p.  (ISBN 2-213-61648-5)
@@ -570,13 +668,88 @@
 Carta blanca (2004)
 Muerte en el "reality show" (2007)
 El blog del inquisidor (2008)
-Niños feroces (2011)
-Ouvrages de littérature d'enfance et de jeunesse
-Contes
-El déspota adolescente (2003)
-El hombre que destruía las ilusiones de los niños (2013)
-Romans
-Algún día, cuando pueda llevarte a Varsovia (1997)
+Niños feroces (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>El déspota adolescente (2003)
+El hombre que destruía las ilusiones de los niños (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Algún día, cuando pueda llevarte a Varsovia (1997)
 El cazador del desierto (1998)
 La lluvia de París (2000)
 Laura y el corazón de las cosas (2002)
@@ -586,9 +759,43 @@
 Mi primer libro sobre Albéniz (2008)
 Albéniz, el pianista aventurero (2008)
 El videojuego al revés (2009)
-Suad (2013), en collaboration avec Noemí Trujillo
-Essais
-Viajes escritos y escritos viajeros (2000)
+Suad (2013), en collaboration avec Noemí Trujillo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lorenzo_Silva</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Viajes escritos y escritos viajeros (2000)
 Del Rif al Yebala. Viaje al sueño y la pesadilla de Marruecos (2001)
 Líneas de sombra. Historias de criminales y policías (2005)
 En tierra extraña, en tierra propia. Anotaciones de viaje (2006)
